--- a/Progress/Week12/SYSTEM_Group_15_Testing_Group_3.xlsx
+++ b/Progress/Week12/SYSTEM_Group_15_Testing_Group_3.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bbecker\Dropbox\BnC_Shared\BDIC\Comp3030J_S2019\Week 12\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\Desktop\COMP3030J Software Engineering Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C44E5DB-B59C-4BB7-B600-6368A5AD7300}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0EFCBA2-8737-4E56-B1D8-BEA13539E7F6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{42946EB9-8DBD-4653-906F-D90ED256EE5B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{42946EB9-8DBD-4653-906F-D90ED256EE5B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Security</t>
   </si>
@@ -42,9 +42,6 @@
     <t>Bi-lingual Interface</t>
   </si>
   <si>
-    <t>Overall Implementation Quality</t>
-  </si>
-  <si>
     <t>Features (are they all there?)</t>
   </si>
   <si>
@@ -55,9 +52,6 @@
   </si>
   <si>
     <t>Score (1-5) 1 is not acceptable, 5 is outstanding</t>
-  </si>
-  <si>
-    <t>GROUP NUMBER THAT YOU ARE TESTING_______________                                                   Your Group Number____________</t>
   </si>
   <si>
     <t>Recommendations (REQUIRED). Why did you give the score you gave? What were the good things? What were the bad things?</t>
@@ -68,7 +62,7 @@
         <b/>
         <sz val="16"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -79,23 +73,67 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> - RENAME THIS FILE SO THAT X IS YOUR GROUP NUMBER AND Y IS THE GROUP YOU ARE TESTING</t>
     </r>
   </si>
+  <si>
+    <t xml:space="preserve">They place a high value on security and consider it at length. For user data, they consider as privacy and protect them.SQLAlchemy is a correct choice to Protecte private data Disclosure prevention is also considered. With permission control, detail data can not access by common users. Some common web page attacks can be successfully prevented. To prevent injection attack or auto access, they use Captcha in login and register pages. </t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Overall Implementation Quality</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">They implement all the functional requirements.
+Customer can make appointment for their pet. Appointments is classified into 2 types. And the system allows one customer make multiple appointments for different pets. Customers can follow their reservations. Employees can organize, prioritize and keep track of pets in the system. Also they provide search function for both staff and users to search reservations. A forum module is used for customers to chat with each other.
+</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Three members of our team were responsible for system testing. So, we divided these six parts and each member focus on two part of ststem testing. We use unit testing to test their system. Our test based on the basic functions and divide functions into different parts, its purpose is to test the correctness of the software of basic unit.</t>
+  </si>
+  <si>
+    <t>This project has realized the basic function of switching between Chinese and English, and has the function button of switching languages in the login interface and the website, which conforms to the description of the system documents and can be used by users with different language requirements.</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>The document is clear in structure, accurate in detail, and specific in its description of functional requirements and non-functional requirements.All the information during the test is true and correct, and the return result of the verification after the execution according to the document description is the same as the document description.The key steps are highlighted in bold, and the proper layout and graphics make the document easier to use.The language description is rigorous, without obvious grammatical errors and ambiguities.</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">There is no limit with the length of username and password, which will take up more database space and may lead to problems with the long-term data storage of the site;
+This system achieves strict front and rear end separation to achieve the maximum degree of decoupling, which makes it easier to maintain and test, and reduces the risk of errors; 
+The system will preprocess the data in advance to prevent the inefficiency caused by too much data
+</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">The design of UI is very concise and natural;
+The tools and techniques used in the system are described in detail and the reasons for using these tools and techniques are explained;
+The front and rear ends of the system are strictly separated (decoupling);
+Support for quick query of information and automatic information fill
+</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>GROUP NUMBER THAT YOU ARE TESTING___3________                                                   Your Group Number_____15_____</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -103,7 +141,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -111,7 +149,7 @@
       <b/>
       <sz val="16"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -119,14 +157,14 @@
       <b/>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -134,8 +172,15 @@
       <b/>
       <sz val="9"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -174,7 +219,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -183,21 +228,24 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -213,7 +261,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -512,35 +560,35 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="B6" sqref="B6:G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.54296875" customWidth="1"/>
-    <col min="2" max="2" width="20.26953125" customWidth="1"/>
-    <col min="3" max="3" width="19.1796875" customWidth="1"/>
-    <col min="4" max="4" width="20.1796875" customWidth="1"/>
-    <col min="5" max="5" width="18.6328125" customWidth="1"/>
-    <col min="6" max="6" width="18.7265625" customWidth="1"/>
-    <col min="7" max="7" width="19.54296875" customWidth="1"/>
-    <col min="9" max="9" width="38.90625" customWidth="1"/>
+    <col min="1" max="1" width="10.5" customWidth="1"/>
+    <col min="2" max="2" width="20.25" customWidth="1"/>
+    <col min="3" max="3" width="19.125" customWidth="1"/>
+    <col min="4" max="4" width="20.125" customWidth="1"/>
+    <col min="5" max="5" width="18.625" customWidth="1"/>
+    <col min="6" max="6" width="18.75" customWidth="1"/>
+    <col min="7" max="7" width="19.5" customWidth="1"/>
+    <col min="9" max="9" width="38.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="21" x14ac:dyDescent="0.5">
-      <c r="A1" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
+    <row r="1" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
@@ -549,7 +597,7 @@
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
     </row>
-    <row r="3" spans="1:7" ht="24" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" ht="24" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="2" t="s">
         <v>0</v>
@@ -561,47 +609,73 @@
         <v>2</v>
       </c>
       <c r="E3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="2" t="s">
+    </row>
+    <row r="4" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1">
         <v>5</v>
       </c>
+      <c r="C4" s="1">
+        <v>4</v>
+      </c>
+      <c r="D4" s="1">
+        <v>5</v>
+      </c>
+      <c r="E4" s="1">
+        <v>5</v>
+      </c>
+      <c r="F4" s="1">
+        <v>5</v>
+      </c>
+      <c r="G4" s="1">
+        <v>5</v>
+      </c>
     </row>
-    <row r="4" spans="1:7" ht="48" x14ac:dyDescent="0.35">
-      <c r="A4" s="3" t="s">
+    <row r="5" spans="1:7" ht="297" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
+      <c r="B5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="5" spans="1:7" ht="297" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-    </row>
-    <row r="6" spans="1:7" ht="73" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" ht="72.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
+        <v>5</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -609,6 +683,7 @@
     <mergeCell ref="A2:G2"/>
     <mergeCell ref="A1:G1"/>
   </mergeCells>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
